--- a/09-Excell/Szenarien Bev.wachstum - WR konstant.xlsx
+++ b/09-Excell/Szenarien Bev.wachstum - WR konstant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit Word\Excell\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cyrano Golliez\Desktop\ETH\6. Semester\Bachelorarbeit\09-Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Szenario 2'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Szenario 3'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -280,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -347,6 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1082,11 +1083,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="531073840"/>
-        <c:axId val="666964408"/>
+        <c:axId val="518711376"/>
+        <c:axId val="518707456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="531073840"/>
+        <c:axId val="518711376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1129,7 +1130,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666964408"/>
+        <c:crossAx val="518707456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1137,7 +1138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666964408"/>
+        <c:axId val="518707456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,7 +1189,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="531073840"/>
+        <c:crossAx val="518711376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,7 +1315,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1987,11 +1987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="666965584"/>
-        <c:axId val="666971072"/>
+        <c:axId val="518712160"/>
+        <c:axId val="518708632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="666965584"/>
+        <c:axId val="518712160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,7 +2034,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666971072"/>
+        <c:crossAx val="518708632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2042,7 +2042,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666971072"/>
+        <c:axId val="518708632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2093,7 +2093,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666965584"/>
+        <c:crossAx val="518712160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2107,7 +2107,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2219,7 +2218,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2892,11 +2890,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="666964800"/>
-        <c:axId val="666965976"/>
+        <c:axId val="518709024"/>
+        <c:axId val="518713336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="666964800"/>
+        <c:axId val="518709024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2939,7 +2937,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666965976"/>
+        <c:crossAx val="518713336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +2945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="666965976"/>
+        <c:axId val="518713336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +2996,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="666964800"/>
+        <c:crossAx val="518709024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3012,7 +3010,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14508,10 +14505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J54"/>
+  <dimension ref="B1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14528,16 +14525,16 @@
     <col min="10" max="10" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="9.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="2:10" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="2:10" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
@@ -14548,7 +14545,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="26"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="13"/>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
@@ -14558,8 +14555,20 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
       <c r="J5" s="27"/>
+      <c r="L5" s="30">
+        <f>1245*0.005</f>
+        <v>6.2250000000000005</v>
+      </c>
+      <c r="M5" s="30">
+        <f>1245*0.017</f>
+        <v>21.165000000000003</v>
+      </c>
+      <c r="N5" s="30">
+        <f>1245*0.0125</f>
+        <v>15.5625</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="13"/>
       <c r="C6" s="22"/>
       <c r="D6" s="23"/>
@@ -14570,7 +14579,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="13"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
@@ -14581,7 +14590,7 @@
       <c r="I7" s="25"/>
       <c r="J7" s="28"/>
     </row>
-    <row r="8" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="10"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
@@ -14590,7 +14599,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" s="4">
         <v>2015</v>
       </c>
@@ -14611,7 +14620,7 @@
         <v>1238.66807960199</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <f>C9+1</f>
         <v>2016</v>
@@ -14634,7 +14643,7 @@
         <v>1244.86142</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <f t="shared" ref="C11:C27" si="0">C10+1</f>
         <v>2017</v>
@@ -14658,7 +14667,7 @@
         <v>1251.0857270999998</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>2018</v>
@@ -14682,7 +14691,7 @@
         <v>1257.3411557354996</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>2019</v>
@@ -14706,7 +14715,7 @@
         <v>1263.6278615141771</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>2020</v>
@@ -14730,7 +14739,7 @@
         <v>1269.9460008217477</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>2021</v>
@@ -14754,7 +14763,7 @@
         <v>1276.2957308258563</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>2022</v>
